--- a/Documentacion/Product backlog/Product Backlog v1.3/Sprint Backlog_Versión 1.3.xlsx
+++ b/Documentacion/Product backlog/Product Backlog v1.3/Sprint Backlog_Versión 1.3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Saeteros\Desktop\Proyecto_E-commerce\Documentacion\Product backlog\Product Backlog v1.3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13DB6FD9-3E1F-4845-96BE-2D03241C88E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC0A6AF6-9A09-45D7-99C0-4E42357EC851}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="441" uniqueCount="177">
   <si>
     <t>Columna</t>
   </si>
@@ -475,9 +475,6 @@
   </si>
   <si>
     <t>HT-046</t>
-  </si>
-  <si>
-    <t>Ajustar diseño de las pantallas según feedback</t>
   </si>
   <si>
     <t>HT-047</t>
@@ -712,6 +709,18 @@
       </rPr>
       <t xml:space="preserve"> Refinar la funcionalidad de gestión de estados e historial de pedidos.</t>
     </r>
+  </si>
+  <si>
+    <t>Revisar</t>
+  </si>
+  <si>
+    <t>Diseñar pantalla de devoluciones</t>
+  </si>
+  <si>
+    <t>HT-044</t>
+  </si>
+  <si>
+    <t>Ajustar diseño de las pantallas</t>
   </si>
 </sst>
 </file>
@@ -1145,12 +1154,14 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1506,10 +1517,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:H145"/>
+  <dimension ref="B1:H146"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A95" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C123" sqref="C123"/>
+    <sheetView tabSelected="1" topLeftCell="A69" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="D87" sqref="D87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1583,7 +1594,7 @@
     </row>
     <row r="8" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="21" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C8"/>
       <c r="D8"/>
@@ -1630,7 +1641,7 @@
         <v>60</v>
       </c>
       <c r="D11" s="26" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E11" s="26" t="s">
         <v>62</v>
@@ -1651,7 +1662,7 @@
         <v>63</v>
       </c>
       <c r="D12" s="27" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E12" s="27" t="s">
         <v>64</v>
@@ -1672,7 +1683,7 @@
         <v>65</v>
       </c>
       <c r="D13" s="27" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E13" s="27" t="s">
         <v>64</v>
@@ -1693,7 +1704,7 @@
         <v>66</v>
       </c>
       <c r="D14" s="27" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E14" s="27" t="s">
         <v>64</v>
@@ -1714,7 +1725,7 @@
         <v>67</v>
       </c>
       <c r="D15" s="27" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E15" s="27" t="s">
         <v>64</v>
@@ -1735,7 +1746,7 @@
         <v>68</v>
       </c>
       <c r="D16" s="28" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E16" s="28" t="s">
         <v>64</v>
@@ -1788,7 +1799,7 @@
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B21" s="21" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C21"/>
       <c r="D21"/>
@@ -1835,7 +1846,7 @@
         <v>70</v>
       </c>
       <c r="D24" s="26" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E24" s="26" t="s">
         <v>71</v>
@@ -1856,7 +1867,7 @@
         <v>72</v>
       </c>
       <c r="D25" s="27" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E25" s="27" t="s">
         <v>71</v>
@@ -1877,7 +1888,7 @@
         <v>73</v>
       </c>
       <c r="D26" s="27" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E26" s="27" t="s">
         <v>64</v>
@@ -1898,7 +1909,7 @@
         <v>74</v>
       </c>
       <c r="D27" s="27" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E27" s="27" t="s">
         <v>62</v>
@@ -1919,7 +1930,7 @@
         <v>75</v>
       </c>
       <c r="D28" s="28" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E28" s="28" t="s">
         <v>71</v>
@@ -1972,7 +1983,7 @@
     </row>
     <row r="33" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B33" s="21" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C33"/>
       <c r="D33"/>
@@ -2019,7 +2030,7 @@
         <v>77</v>
       </c>
       <c r="D36" s="26" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E36" s="26" t="s">
         <v>71</v>
@@ -2040,7 +2051,7 @@
         <v>78</v>
       </c>
       <c r="D37" s="27" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E37" s="27" t="s">
         <v>79</v>
@@ -2061,7 +2072,7 @@
         <v>80</v>
       </c>
       <c r="D38" s="27" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E38" s="27" t="s">
         <v>71</v>
@@ -2082,7 +2093,7 @@
         <v>81</v>
       </c>
       <c r="D39" s="27" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E39" s="27" t="s">
         <v>62</v>
@@ -2103,7 +2114,7 @@
         <v>82</v>
       </c>
       <c r="D40" s="28" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E40" s="28" t="s">
         <v>83</v>
@@ -2156,7 +2167,7 @@
     </row>
     <row r="45" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B45" s="21" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C45"/>
       <c r="D45"/>
@@ -2203,7 +2214,7 @@
         <v>85</v>
       </c>
       <c r="D48" s="26" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E48" s="26" t="s">
         <v>71</v>
@@ -2224,7 +2235,7 @@
         <v>89</v>
       </c>
       <c r="D49" s="26" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E49" s="27" t="s">
         <v>71</v>
@@ -2245,7 +2256,7 @@
         <v>91</v>
       </c>
       <c r="D50" s="26" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E50" s="27" t="s">
         <v>83</v>
@@ -2266,7 +2277,7 @@
         <v>93</v>
       </c>
       <c r="D51" s="26" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E51" s="27" t="s">
         <v>62</v>
@@ -2287,7 +2298,7 @@
         <v>95</v>
       </c>
       <c r="D52" s="32" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E52" s="28" t="s">
         <v>62</v>
@@ -2340,7 +2351,7 @@
     </row>
     <row r="57" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B57" s="21" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C57"/>
       <c r="D57"/>
@@ -2387,7 +2398,7 @@
         <v>87</v>
       </c>
       <c r="D60" s="26" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="E60" s="26" t="s">
         <v>62</v>
@@ -2408,7 +2419,7 @@
         <v>86</v>
       </c>
       <c r="D61" s="26" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="E61" s="27" t="s">
         <v>79</v>
@@ -2429,7 +2440,7 @@
         <v>97</v>
       </c>
       <c r="D62" s="26" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="E62" s="27" t="s">
         <v>71</v>
@@ -2450,7 +2461,7 @@
         <v>99</v>
       </c>
       <c r="D63" s="32" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="E63" s="28" t="s">
         <v>71</v>
@@ -2509,7 +2520,7 @@
     </row>
     <row r="70" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B70" s="21" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C70"/>
       <c r="D70"/>
@@ -2553,10 +2564,10 @@
         <v>100</v>
       </c>
       <c r="C73" s="26" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D73" s="26" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="E73" s="26" t="s">
         <v>101</v>
@@ -2577,7 +2588,7 @@
         <v>107</v>
       </c>
       <c r="D74" s="26" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="E74" s="27" t="s">
         <v>62</v>
@@ -2598,7 +2609,7 @@
         <v>104</v>
       </c>
       <c r="D75" s="26" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="E75" s="27" t="s">
         <v>62</v>
@@ -2619,7 +2630,7 @@
         <v>105</v>
       </c>
       <c r="D76" s="32" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="E76" s="28" t="s">
         <v>79</v>
@@ -2670,7 +2681,7 @@
     </row>
     <row r="81" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B81" s="21" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C81"/>
       <c r="D81"/>
@@ -2681,7 +2692,7 @@
     </row>
     <row r="82" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B82" s="12" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C82"/>
       <c r="D82"/>
@@ -2719,7 +2730,7 @@
         <v>109</v>
       </c>
       <c r="D84" s="26" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="E84" s="26" t="s">
         <v>71</v>
@@ -2740,7 +2751,7 @@
         <v>115</v>
       </c>
       <c r="D85" s="26" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="E85" s="26" t="s">
         <v>62</v>
@@ -2754,13 +2765,13 @@
     </row>
     <row r="86" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B86" s="30" t="s">
+        <v>160</v>
+      </c>
+      <c r="C86" s="27" t="s">
         <v>161</v>
       </c>
-      <c r="C86" s="27" t="s">
-        <v>162</v>
-      </c>
       <c r="D86" s="27" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="E86" s="27" t="s">
         <v>79</v>
@@ -2781,7 +2792,7 @@
         <v>111</v>
       </c>
       <c r="D87" s="28" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="E87" s="28" t="s">
         <v>79</v>
@@ -2837,7 +2848,7 @@
     </row>
     <row r="93" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B93" s="21" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C93"/>
       <c r="D93"/>
@@ -2882,7 +2893,7 @@
         <v>113</v>
       </c>
       <c r="D96" s="26" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E96" s="26" t="s">
         <v>62</v>
@@ -2902,7 +2913,7 @@
         <v>117</v>
       </c>
       <c r="D97" s="26" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E97" s="27" t="s">
         <v>64</v>
@@ -2922,7 +2933,7 @@
         <v>118</v>
       </c>
       <c r="D98" s="26" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E98" s="27" t="s">
         <v>64</v>
@@ -2942,7 +2953,7 @@
         <v>120</v>
       </c>
       <c r="D99" s="32" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E99" s="28" t="s">
         <v>71</v>
@@ -2990,7 +3001,7 @@
     </row>
     <row r="106" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B106" s="21" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C106"/>
       <c r="D106"/>
@@ -3034,7 +3045,7 @@
         <v>129</v>
       </c>
       <c r="D109" s="27" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E109" s="27" t="s">
         <v>79</v>
@@ -3054,7 +3065,7 @@
         <v>131</v>
       </c>
       <c r="D110" s="27" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E110" s="27" t="s">
         <v>79</v>
@@ -3074,7 +3085,7 @@
         <v>133</v>
       </c>
       <c r="D111" s="27" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E111" s="27" t="s">
         <v>71</v>
@@ -3094,7 +3105,7 @@
         <v>135</v>
       </c>
       <c r="D112" s="28" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E112" s="28" t="s">
         <v>71</v>
@@ -3134,44 +3145,44 @@
     </row>
     <row r="116" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B116" s="12"/>
-      <c r="C116" s="43"/>
-      <c r="D116" s="43"/>
-      <c r="E116" s="43"/>
-      <c r="F116" s="43"/>
+      <c r="C116"/>
+      <c r="D116"/>
+      <c r="E116"/>
+      <c r="F116"/>
       <c r="G116" s="11"/>
     </row>
     <row r="117" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B117" s="21" t="s">
-        <v>163</v>
-      </c>
-      <c r="C117" s="43"/>
-      <c r="D117" s="43"/>
-      <c r="E117" s="43"/>
-      <c r="F117" s="43"/>
+        <v>162</v>
+      </c>
+      <c r="C117"/>
+      <c r="D117"/>
+      <c r="E117"/>
+      <c r="F117"/>
       <c r="G117" s="11"/>
     </row>
     <row r="118" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B118" s="12"/>
-      <c r="C118" s="43"/>
-      <c r="D118" s="43"/>
-      <c r="E118" s="43"/>
-      <c r="F118" s="43"/>
+      <c r="C118"/>
+      <c r="D118"/>
+      <c r="E118"/>
+      <c r="F118"/>
       <c r="G118" s="11"/>
     </row>
     <row r="119" spans="2:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B119" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="C119" s="44" t="s">
+      <c r="C119" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="D119" s="44" t="s">
+      <c r="D119" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="E119" s="44" t="s">
+      <c r="E119" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="F119" s="44" t="s">
+      <c r="F119" s="22" t="s">
         <v>8</v>
       </c>
       <c r="G119" s="14" t="s">
@@ -3182,16 +3193,16 @@
       <c r="B120" s="15" t="s">
         <v>121</v>
       </c>
-      <c r="C120" s="45" t="s">
+      <c r="C120" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="D120" s="45" t="s">
+      <c r="D120" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="E120" s="45" t="s">
+      <c r="E120" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="F120" s="45" t="s">
+      <c r="F120" s="6" t="s">
         <v>28</v>
       </c>
       <c r="G120" s="16" t="s">
@@ -3202,16 +3213,16 @@
       <c r="B121" s="15" t="s">
         <v>123</v>
       </c>
-      <c r="C121" s="45" t="s">
+      <c r="C121" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="D121" s="45" t="s">
+      <c r="D121" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="E121" s="45" t="s">
+      <c r="E121" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="F121" s="45" t="s">
+      <c r="F121" s="6" t="s">
         <v>28</v>
       </c>
       <c r="G121" s="16" t="s">
@@ -3222,16 +3233,16 @@
       <c r="B122" s="15" t="s">
         <v>125</v>
       </c>
-      <c r="C122" s="45" t="s">
+      <c r="C122" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="D122" s="45" t="s">
+      <c r="D122" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="E122" s="45" t="s">
+      <c r="E122" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="F122" s="45" t="s">
+      <c r="F122" s="6" t="s">
         <v>28</v>
       </c>
       <c r="G122" s="16" t="s">
@@ -3294,7 +3305,7 @@
     </row>
     <row r="128" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B128" s="21" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C128"/>
       <c r="D128"/>
@@ -3331,94 +3342,104 @@
       </c>
     </row>
     <row r="131" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B131" s="15" t="s">
-        <v>140</v>
+      <c r="B131" s="44" t="s">
+        <v>175</v>
       </c>
       <c r="C131" s="6" t="s">
-        <v>141</v>
-      </c>
-      <c r="D131" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="E131" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="D131" s="22"/>
+      <c r="E131" s="43" t="s">
         <v>71</v>
       </c>
-      <c r="F131" s="6" t="s">
+      <c r="F131" s="43" t="s">
         <v>55</v>
       </c>
-      <c r="G131" s="16" t="s">
+      <c r="G131" s="45" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="132" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B132" s="15" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C132" s="6" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D132" s="6" t="s">
         <v>61</v>
       </c>
       <c r="E132" s="6" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="F132" s="6" t="s">
         <v>55</v>
       </c>
       <c r="G132" s="16" t="s">
-        <v>90</v>
+        <v>20</v>
       </c>
     </row>
     <row r="133" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B133" s="15" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C133" s="6" t="s">
-        <v>145</v>
+        <v>176</v>
       </c>
       <c r="D133" s="6" t="s">
         <v>61</v>
       </c>
       <c r="E133" s="6" t="s">
-        <v>79</v>
+        <v>62</v>
       </c>
       <c r="F133" s="6" t="s">
         <v>55</v>
       </c>
       <c r="G133" s="16" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="134" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B134" s="19" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="134" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B134" s="15" t="s">
+        <v>143</v>
+      </c>
+      <c r="C134" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="D134" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="E134" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="F134" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="G134" s="16" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="135" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B135" s="19" t="s">
+        <v>145</v>
+      </c>
+      <c r="C135" s="17" t="s">
         <v>146</v>
       </c>
-      <c r="C134" s="17" t="s">
-        <v>147</v>
-      </c>
-      <c r="D134" s="17" t="s">
+      <c r="D135" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="E134" s="17" t="s">
+      <c r="E135" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="F134" s="17" t="s">
+      <c r="F135" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="G134" s="18" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="135" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B135"/>
-      <c r="C135"/>
-      <c r="D135"/>
-      <c r="E135"/>
-      <c r="F135"/>
-      <c r="G135"/>
-    </row>
-    <row r="136" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G135" s="18" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="136" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B136"/>
       <c r="C136"/>
       <c r="D136"/>
@@ -3426,28 +3447,26 @@
       <c r="F136"/>
       <c r="G136"/>
     </row>
-    <row r="137" spans="2:7" ht="18" x14ac:dyDescent="0.25">
-      <c r="B137" s="8" t="s">
-        <v>148</v>
-      </c>
-      <c r="C137" s="9"/>
-      <c r="D137" s="9"/>
-      <c r="E137" s="9"/>
-      <c r="F137" s="9"/>
-      <c r="G137" s="10"/>
-    </row>
-    <row r="138" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B138" s="12"/>
-      <c r="C138"/>
-      <c r="D138"/>
-      <c r="E138"/>
-      <c r="F138"/>
-      <c r="G138" s="11"/>
+    <row r="137" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B137"/>
+      <c r="C137"/>
+      <c r="D137"/>
+      <c r="E137"/>
+      <c r="F137"/>
+      <c r="G137"/>
+    </row>
+    <row r="138" spans="2:7" ht="18" x14ac:dyDescent="0.25">
+      <c r="B138" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="C138" s="9"/>
+      <c r="D138" s="9"/>
+      <c r="E138" s="9"/>
+      <c r="F138" s="9"/>
+      <c r="G138" s="10"/>
     </row>
     <row r="139" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B139" s="21" t="s">
-        <v>165</v>
-      </c>
+      <c r="B139" s="12"/>
       <c r="C139"/>
       <c r="D139"/>
       <c r="E139"/>
@@ -3455,65 +3474,55 @@
       <c r="G139" s="11"/>
     </row>
     <row r="140" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B140" s="12"/>
+      <c r="B140" s="21" t="s">
+        <v>164</v>
+      </c>
       <c r="C140"/>
       <c r="D140"/>
       <c r="E140"/>
       <c r="F140"/>
       <c r="G140" s="11"/>
     </row>
-    <row r="141" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B141" s="13" t="s">
+    <row r="141" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B141" s="12"/>
+      <c r="C141"/>
+      <c r="D141"/>
+      <c r="E141"/>
+      <c r="F141"/>
+      <c r="G141" s="11"/>
+    </row>
+    <row r="142" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="B142" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="C141" s="22" t="s">
+      <c r="C142" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="D141" s="22" t="s">
+      <c r="D142" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="E141" s="22" t="s">
+      <c r="E142" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="F141" s="22" t="s">
+      <c r="F142" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="G141" s="14" t="s">
+      <c r="G142" s="14" t="s">
         <v>9</v>
-      </c>
-    </row>
-    <row r="142" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B142" s="15" t="s">
-        <v>149</v>
-      </c>
-      <c r="C142" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="D142" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="E142" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="F142" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="G142" s="16" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="143" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B143" s="15" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="C143" s="6" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="D143" s="6" t="s">
         <v>61</v>
       </c>
       <c r="E143" s="6" t="s">
-        <v>79</v>
+        <v>62</v>
       </c>
       <c r="F143" s="6" t="s">
         <v>56</v>
@@ -3524,41 +3533,61 @@
     </row>
     <row r="144" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B144" s="15" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C144" s="6" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="D144" s="6" t="s">
         <v>61</v>
       </c>
       <c r="E144" s="6" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="F144" s="6" t="s">
         <v>56</v>
       </c>
       <c r="G144" s="16" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="145" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B145" s="15" t="s">
+        <v>152</v>
+      </c>
+      <c r="C145" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="D145" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="E145" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="F145" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="G145" s="16" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="145" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B145" s="19" t="s">
+    <row r="146" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B146" s="19" t="s">
+        <v>154</v>
+      </c>
+      <c r="C146" s="17" t="s">
         <v>155</v>
       </c>
-      <c r="C145" s="17" t="s">
-        <v>156</v>
-      </c>
-      <c r="D145" s="17" t="s">
+      <c r="D146" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="E145" s="17" t="s">
+      <c r="E146" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="F145" s="17" t="s">
+      <c r="F146" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="G145" s="18" t="s">
+      <c r="G146" s="18" t="s">
         <v>20</v>
       </c>
     </row>

--- a/Documentacion/Product backlog/Product Backlog v1.3/Sprint Backlog_Versión 1.3.xlsx
+++ b/Documentacion/Product backlog/Product Backlog v1.3/Sprint Backlog_Versión 1.3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Saeteros\Desktop\Proyecto_E-commerce\Documentacion\Product backlog\Product Backlog v1.3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC0A6AF6-9A09-45D7-99C0-4E42357EC851}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{795A725D-B15C-44BB-BE20-EDD1ED1ECCFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Product Backlog" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="441" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="435" uniqueCount="174">
   <si>
     <t>Columna</t>
   </si>
@@ -478,15 +478,6 @@
   </si>
   <si>
     <t>HT-047</t>
-  </si>
-  <si>
-    <t>Realizar pruebas finales del sistema completo</t>
-  </si>
-  <si>
-    <t>HT-048</t>
-  </si>
-  <si>
-    <t>Documentar la funcionalidad final</t>
   </si>
   <si>
     <t>Sprint 12 (4 de febrero - 11 de febrero de 2025)</t>
@@ -608,21 +599,6 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> Ajustar la funcionalidad basada en feedback y realizar pruebas finales.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Objetivo:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
       <t xml:space="preserve"> Desplegar el sistema y cerrar el proyecto.</t>
     </r>
   </si>
@@ -711,9 +687,6 @@
     </r>
   </si>
   <si>
-    <t>Revisar</t>
-  </si>
-  <si>
     <t>Diseñar pantalla de devoluciones</t>
   </si>
   <si>
@@ -721,6 +694,24 @@
   </si>
   <si>
     <t>Ajustar diseño de las pantallas</t>
+  </si>
+  <si>
+    <t>Realizar pruebas del sistema</t>
+  </si>
+  <si>
+    <r>
+      <t>Objetivo:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Ajustar la funcionalidad basada en feedback y realizar pruebas.</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -1044,7 +1035,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -1127,6 +1118,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1154,20 +1151,28 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="7">
+  <dxfs count="8">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1517,10 +1522,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:H146"/>
+  <dimension ref="B1:H145"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A69" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D87" sqref="D87"/>
+    <sheetView tabSelected="1" topLeftCell="A87" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="C117" sqref="C117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1539,38 +1544,38 @@
   <sheetData>
     <row r="1" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:8" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="34" t="s">
+      <c r="B2" s="36" t="s">
         <v>57</v>
       </c>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="36"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="38"/>
     </row>
     <row r="3" spans="2:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="37"/>
-      <c r="C3" s="38"/>
-      <c r="D3" s="38"/>
-      <c r="E3" s="38"/>
-      <c r="F3" s="38"/>
-      <c r="G3" s="39"/>
+      <c r="B3" s="39"/>
+      <c r="C3" s="40"/>
+      <c r="D3" s="40"/>
+      <c r="E3" s="40"/>
+      <c r="F3" s="40"/>
+      <c r="G3" s="41"/>
     </row>
     <row r="4" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="37"/>
-      <c r="C4" s="38"/>
-      <c r="D4" s="38"/>
-      <c r="E4" s="38"/>
-      <c r="F4" s="38"/>
-      <c r="G4" s="39"/>
+      <c r="B4" s="39"/>
+      <c r="C4" s="40"/>
+      <c r="D4" s="40"/>
+      <c r="E4" s="40"/>
+      <c r="F4" s="40"/>
+      <c r="G4" s="41"/>
     </row>
     <row r="5" spans="2:8" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="40"/>
-      <c r="C5" s="41"/>
-      <c r="D5" s="41"/>
-      <c r="E5" s="41"/>
-      <c r="F5" s="41"/>
-      <c r="G5" s="42"/>
+      <c r="B5" s="42"/>
+      <c r="C5" s="43"/>
+      <c r="D5" s="43"/>
+      <c r="E5" s="43"/>
+      <c r="F5" s="43"/>
+      <c r="G5" s="44"/>
       <c r="H5" s="6"/>
     </row>
     <row r="6" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1594,7 +1599,7 @@
     </row>
     <row r="8" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="21" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C8"/>
       <c r="D8"/>
@@ -1641,7 +1646,7 @@
         <v>60</v>
       </c>
       <c r="D11" s="26" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="E11" s="26" t="s">
         <v>62</v>
@@ -1662,7 +1667,7 @@
         <v>63</v>
       </c>
       <c r="D12" s="27" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="E12" s="27" t="s">
         <v>64</v>
@@ -1683,7 +1688,7 @@
         <v>65</v>
       </c>
       <c r="D13" s="27" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="E13" s="27" t="s">
         <v>64</v>
@@ -1704,7 +1709,7 @@
         <v>66</v>
       </c>
       <c r="D14" s="27" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="E14" s="27" t="s">
         <v>64</v>
@@ -1725,7 +1730,7 @@
         <v>67</v>
       </c>
       <c r="D15" s="27" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="E15" s="27" t="s">
         <v>64</v>
@@ -1746,7 +1751,7 @@
         <v>68</v>
       </c>
       <c r="D16" s="28" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="E16" s="28" t="s">
         <v>64</v>
@@ -1799,7 +1804,7 @@
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B21" s="21" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C21"/>
       <c r="D21"/>
@@ -1846,7 +1851,7 @@
         <v>70</v>
       </c>
       <c r="D24" s="26" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="E24" s="26" t="s">
         <v>71</v>
@@ -1867,7 +1872,7 @@
         <v>72</v>
       </c>
       <c r="D25" s="27" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="E25" s="27" t="s">
         <v>71</v>
@@ -1888,7 +1893,7 @@
         <v>73</v>
       </c>
       <c r="D26" s="27" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="E26" s="27" t="s">
         <v>64</v>
@@ -1909,7 +1914,7 @@
         <v>74</v>
       </c>
       <c r="D27" s="27" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="E27" s="27" t="s">
         <v>62</v>
@@ -1930,7 +1935,7 @@
         <v>75</v>
       </c>
       <c r="D28" s="28" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="E28" s="28" t="s">
         <v>71</v>
@@ -1983,7 +1988,7 @@
     </row>
     <row r="33" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B33" s="21" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C33"/>
       <c r="D33"/>
@@ -2030,7 +2035,7 @@
         <v>77</v>
       </c>
       <c r="D36" s="26" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="E36" s="26" t="s">
         <v>71</v>
@@ -2051,7 +2056,7 @@
         <v>78</v>
       </c>
       <c r="D37" s="27" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="E37" s="27" t="s">
         <v>79</v>
@@ -2072,7 +2077,7 @@
         <v>80</v>
       </c>
       <c r="D38" s="27" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="E38" s="27" t="s">
         <v>71</v>
@@ -2093,7 +2098,7 @@
         <v>81</v>
       </c>
       <c r="D39" s="27" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="E39" s="27" t="s">
         <v>62</v>
@@ -2114,7 +2119,7 @@
         <v>82</v>
       </c>
       <c r="D40" s="28" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="E40" s="28" t="s">
         <v>83</v>
@@ -2167,7 +2172,7 @@
     </row>
     <row r="45" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B45" s="21" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="C45"/>
       <c r="D45"/>
@@ -2214,7 +2219,7 @@
         <v>85</v>
       </c>
       <c r="D48" s="26" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="E48" s="26" t="s">
         <v>71</v>
@@ -2235,7 +2240,7 @@
         <v>89</v>
       </c>
       <c r="D49" s="26" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="E49" s="27" t="s">
         <v>71</v>
@@ -2256,7 +2261,7 @@
         <v>91</v>
       </c>
       <c r="D50" s="26" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="E50" s="27" t="s">
         <v>83</v>
@@ -2277,7 +2282,7 @@
         <v>93</v>
       </c>
       <c r="D51" s="26" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="E51" s="27" t="s">
         <v>62</v>
@@ -2298,7 +2303,7 @@
         <v>95</v>
       </c>
       <c r="D52" s="32" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="E52" s="28" t="s">
         <v>62</v>
@@ -2351,7 +2356,7 @@
     </row>
     <row r="57" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B57" s="21" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="C57"/>
       <c r="D57"/>
@@ -2398,7 +2403,7 @@
         <v>87</v>
       </c>
       <c r="D60" s="26" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="E60" s="26" t="s">
         <v>62</v>
@@ -2419,7 +2424,7 @@
         <v>86</v>
       </c>
       <c r="D61" s="26" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="E61" s="27" t="s">
         <v>79</v>
@@ -2440,7 +2445,7 @@
         <v>97</v>
       </c>
       <c r="D62" s="26" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="E62" s="27" t="s">
         <v>71</v>
@@ -2461,7 +2466,7 @@
         <v>99</v>
       </c>
       <c r="D63" s="32" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="E63" s="28" t="s">
         <v>71</v>
@@ -2520,7 +2525,7 @@
     </row>
     <row r="70" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B70" s="21" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="C70"/>
       <c r="D70"/>
@@ -2564,10 +2569,10 @@
         <v>100</v>
       </c>
       <c r="C73" s="26" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="D73" s="26" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="E73" s="26" t="s">
         <v>101</v>
@@ -2588,7 +2593,7 @@
         <v>107</v>
       </c>
       <c r="D74" s="26" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="E74" s="27" t="s">
         <v>62</v>
@@ -2609,7 +2614,7 @@
         <v>104</v>
       </c>
       <c r="D75" s="26" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="E75" s="27" t="s">
         <v>62</v>
@@ -2630,7 +2635,7 @@
         <v>105</v>
       </c>
       <c r="D76" s="32" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="E76" s="28" t="s">
         <v>79</v>
@@ -2681,7 +2686,7 @@
     </row>
     <row r="81" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B81" s="21" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="C81"/>
       <c r="D81"/>
@@ -2692,7 +2697,7 @@
     </row>
     <row r="82" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B82" s="12" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="C82"/>
       <c r="D82"/>
@@ -2730,7 +2735,7 @@
         <v>109</v>
       </c>
       <c r="D84" s="26" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="E84" s="26" t="s">
         <v>71</v>
@@ -2751,7 +2756,7 @@
         <v>115</v>
       </c>
       <c r="D85" s="26" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="E85" s="26" t="s">
         <v>62</v>
@@ -2765,13 +2770,13 @@
     </row>
     <row r="86" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B86" s="30" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C86" s="27" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="D86" s="27" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="E86" s="27" t="s">
         <v>79</v>
@@ -2792,7 +2797,7 @@
         <v>111</v>
       </c>
       <c r="D87" s="28" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="E87" s="28" t="s">
         <v>79</v>
@@ -2848,7 +2853,7 @@
     </row>
     <row r="93" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B93" s="21" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="C93"/>
       <c r="D93"/>
@@ -2893,7 +2898,7 @@
         <v>113</v>
       </c>
       <c r="D96" s="26" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="E96" s="26" t="s">
         <v>62</v>
@@ -2913,7 +2918,7 @@
         <v>117</v>
       </c>
       <c r="D97" s="26" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="E97" s="27" t="s">
         <v>64</v>
@@ -2933,7 +2938,7 @@
         <v>118</v>
       </c>
       <c r="D98" s="26" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="E98" s="27" t="s">
         <v>64</v>
@@ -2953,7 +2958,7 @@
         <v>120</v>
       </c>
       <c r="D99" s="32" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="E99" s="28" t="s">
         <v>71</v>
@@ -3001,7 +3006,7 @@
     </row>
     <row r="106" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B106" s="21" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="C106"/>
       <c r="D106"/>
@@ -3045,7 +3050,7 @@
         <v>129</v>
       </c>
       <c r="D109" s="27" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="E109" s="27" t="s">
         <v>79</v>
@@ -3065,7 +3070,7 @@
         <v>131</v>
       </c>
       <c r="D110" s="27" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="E110" s="27" t="s">
         <v>79</v>
@@ -3085,7 +3090,7 @@
         <v>133</v>
       </c>
       <c r="D111" s="27" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="E111" s="27" t="s">
         <v>71</v>
@@ -3105,7 +3110,7 @@
         <v>135</v>
       </c>
       <c r="D112" s="28" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="E112" s="28" t="s">
         <v>71</v>
@@ -3153,7 +3158,7 @@
     </row>
     <row r="117" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B117" s="21" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C117"/>
       <c r="D117"/>
@@ -3189,15 +3194,15 @@
         <v>9</v>
       </c>
     </row>
-    <row r="120" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B120" s="15" t="s">
         <v>121</v>
       </c>
       <c r="C120" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="D120" s="6" t="s">
-        <v>61</v>
+      <c r="D120" s="28" t="s">
+        <v>161</v>
       </c>
       <c r="E120" s="6" t="s">
         <v>71</v>
@@ -3209,15 +3214,15 @@
         <v>90</v>
       </c>
     </row>
-    <row r="121" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B121" s="15" t="s">
         <v>123</v>
       </c>
       <c r="C121" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="D121" s="6" t="s">
-        <v>61</v>
+      <c r="D121" s="28" t="s">
+        <v>161</v>
       </c>
       <c r="E121" s="6" t="s">
         <v>71</v>
@@ -3229,15 +3234,15 @@
         <v>90</v>
       </c>
     </row>
-    <row r="122" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="122" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B122" s="15" t="s">
         <v>125</v>
       </c>
       <c r="C122" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="D122" s="6" t="s">
-        <v>61</v>
+      <c r="D122" s="28" t="s">
+        <v>161</v>
       </c>
       <c r="E122" s="6" t="s">
         <v>101</v>
@@ -3256,8 +3261,8 @@
       <c r="C123" s="17" t="s">
         <v>138</v>
       </c>
-      <c r="D123" s="17" t="s">
-        <v>61</v>
+      <c r="D123" s="28" t="s">
+        <v>161</v>
       </c>
       <c r="E123" s="17" t="s">
         <v>79</v>
@@ -3297,44 +3302,44 @@
     </row>
     <row r="127" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B127" s="12"/>
-      <c r="C127"/>
-      <c r="D127"/>
-      <c r="E127"/>
-      <c r="F127"/>
+      <c r="C127" s="45"/>
+      <c r="D127" s="45"/>
+      <c r="E127" s="45"/>
+      <c r="F127" s="45"/>
       <c r="G127" s="11"/>
     </row>
     <row r="128" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B128" s="21" t="s">
-        <v>163</v>
-      </c>
-      <c r="C128"/>
-      <c r="D128"/>
-      <c r="E128"/>
-      <c r="F128"/>
+        <v>173</v>
+      </c>
+      <c r="C128" s="45"/>
+      <c r="D128" s="45"/>
+      <c r="E128" s="45"/>
+      <c r="F128" s="45"/>
       <c r="G128" s="11"/>
     </row>
     <row r="129" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B129" s="12"/>
-      <c r="C129"/>
-      <c r="D129"/>
-      <c r="E129"/>
-      <c r="F129"/>
+      <c r="C129" s="45"/>
+      <c r="D129" s="45"/>
+      <c r="E129" s="45"/>
+      <c r="F129" s="45"/>
       <c r="G129" s="11"/>
     </row>
     <row r="130" spans="2:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B130" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="C130" s="22" t="s">
+      <c r="C130" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="D130" s="22" t="s">
+      <c r="D130" s="46" t="s">
         <v>6</v>
       </c>
-      <c r="E130" s="22" t="s">
+      <c r="E130" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="F130" s="22" t="s">
+      <c r="F130" s="46" t="s">
         <v>8</v>
       </c>
       <c r="G130" s="14" t="s">
@@ -3342,20 +3347,20 @@
       </c>
     </row>
     <row r="131" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B131" s="44" t="s">
-        <v>175</v>
-      </c>
-      <c r="C131" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="D131" s="22"/>
-      <c r="E131" s="43" t="s">
+      <c r="B131" s="34" t="s">
+        <v>170</v>
+      </c>
+      <c r="C131" s="47" t="s">
+        <v>169</v>
+      </c>
+      <c r="D131" s="46"/>
+      <c r="E131" s="48" t="s">
         <v>71</v>
       </c>
-      <c r="F131" s="43" t="s">
+      <c r="F131" s="48" t="s">
         <v>55</v>
       </c>
-      <c r="G131" s="45" t="s">
+      <c r="G131" s="35" t="s">
         <v>20</v>
       </c>
     </row>
@@ -3363,16 +3368,16 @@
       <c r="B132" s="15" t="s">
         <v>140</v>
       </c>
-      <c r="C132" s="6" t="s">
+      <c r="C132" s="47" t="s">
         <v>141</v>
       </c>
-      <c r="D132" s="6" t="s">
+      <c r="D132" s="47" t="s">
         <v>61</v>
       </c>
-      <c r="E132" s="6" t="s">
+      <c r="E132" s="47" t="s">
         <v>71</v>
       </c>
-      <c r="F132" s="6" t="s">
+      <c r="F132" s="47" t="s">
         <v>55</v>
       </c>
       <c r="G132" s="16" t="s">
@@ -3383,63 +3388,51 @@
       <c r="B133" s="15" t="s">
         <v>142</v>
       </c>
-      <c r="C133" s="6" t="s">
-        <v>176</v>
-      </c>
-      <c r="D133" s="6" t="s">
+      <c r="C133" s="47" t="s">
+        <v>171</v>
+      </c>
+      <c r="D133" s="47" t="s">
         <v>61</v>
       </c>
-      <c r="E133" s="6" t="s">
+      <c r="E133" s="47" t="s">
         <v>62</v>
       </c>
-      <c r="F133" s="6" t="s">
+      <c r="F133" s="47" t="s">
         <v>55</v>
       </c>
       <c r="G133" s="16" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="134" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B134" s="15" t="s">
+    <row r="134" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B134" s="19" t="s">
         <v>143</v>
       </c>
-      <c r="C134" s="6" t="s">
-        <v>144</v>
-      </c>
-      <c r="D134" s="6" t="s">
+      <c r="C134" s="17" t="s">
+        <v>172</v>
+      </c>
+      <c r="D134" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="E134" s="6" t="s">
+      <c r="E134" s="17" t="s">
         <v>79</v>
       </c>
-      <c r="F134" s="6" t="s">
+      <c r="F134" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="G134" s="16" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="135" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B135" s="19" t="s">
-        <v>145</v>
-      </c>
-      <c r="C135" s="17" t="s">
-        <v>146</v>
-      </c>
-      <c r="D135" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="E135" s="17" t="s">
-        <v>62</v>
-      </c>
-      <c r="F135" s="17" t="s">
-        <v>55</v>
-      </c>
-      <c r="G135" s="18" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="136" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="G134" s="18" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="135" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B135"/>
+      <c r="C135"/>
+      <c r="D135"/>
+      <c r="E135"/>
+      <c r="F135"/>
+      <c r="G135"/>
+    </row>
+    <row r="136" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B136"/>
       <c r="C136"/>
       <c r="D136"/>
@@ -3447,26 +3440,28 @@
       <c r="F136"/>
       <c r="G136"/>
     </row>
-    <row r="137" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B137"/>
-      <c r="C137"/>
-      <c r="D137"/>
-      <c r="E137"/>
-      <c r="F137"/>
-      <c r="G137"/>
-    </row>
-    <row r="138" spans="2:7" ht="18" x14ac:dyDescent="0.25">
-      <c r="B138" s="8" t="s">
-        <v>147</v>
-      </c>
-      <c r="C138" s="9"/>
-      <c r="D138" s="9"/>
-      <c r="E138" s="9"/>
-      <c r="F138" s="9"/>
-      <c r="G138" s="10"/>
+    <row r="137" spans="2:7" ht="18" x14ac:dyDescent="0.25">
+      <c r="B137" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="C137" s="9"/>
+      <c r="D137" s="9"/>
+      <c r="E137" s="9"/>
+      <c r="F137" s="9"/>
+      <c r="G137" s="10"/>
+    </row>
+    <row r="138" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B138" s="12"/>
+      <c r="C138"/>
+      <c r="D138"/>
+      <c r="E138"/>
+      <c r="F138"/>
+      <c r="G138" s="11"/>
     </row>
     <row r="139" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B139" s="12"/>
+      <c r="B139" s="21" t="s">
+        <v>160</v>
+      </c>
       <c r="C139"/>
       <c r="D139"/>
       <c r="E139"/>
@@ -3474,55 +3469,65 @@
       <c r="G139" s="11"/>
     </row>
     <row r="140" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B140" s="21" t="s">
-        <v>164</v>
-      </c>
+      <c r="B140" s="12"/>
       <c r="C140"/>
       <c r="D140"/>
       <c r="E140"/>
       <c r="F140"/>
       <c r="G140" s="11"/>
     </row>
-    <row r="141" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B141" s="12"/>
-      <c r="C141"/>
-      <c r="D141"/>
-      <c r="E141"/>
-      <c r="F141"/>
-      <c r="G141" s="11"/>
-    </row>
-    <row r="142" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B142" s="13" t="s">
+    <row r="141" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="B141" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="C142" s="22" t="s">
+      <c r="C141" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="D142" s="22" t="s">
+      <c r="D141" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="E142" s="22" t="s">
+      <c r="E141" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="F142" s="22" t="s">
+      <c r="F141" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="G142" s="14" t="s">
+      <c r="G141" s="14" t="s">
         <v>9</v>
+      </c>
+    </row>
+    <row r="142" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B142" s="15" t="s">
+        <v>145</v>
+      </c>
+      <c r="C142" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="D142" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="E142" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="F142" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="G142" s="16" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="143" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B143" s="15" t="s">
+        <v>147</v>
+      </c>
+      <c r="C143" s="6" t="s">
         <v>148</v>
-      </c>
-      <c r="C143" s="6" t="s">
-        <v>149</v>
       </c>
       <c r="D143" s="6" t="s">
         <v>61</v>
       </c>
       <c r="E143" s="6" t="s">
-        <v>62</v>
+        <v>79</v>
       </c>
       <c r="F143" s="6" t="s">
         <v>56</v>
@@ -3533,61 +3538,41 @@
     </row>
     <row r="144" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B144" s="15" t="s">
+        <v>149</v>
+      </c>
+      <c r="C144" s="6" t="s">
         <v>150</v>
-      </c>
-      <c r="C144" s="6" t="s">
-        <v>151</v>
       </c>
       <c r="D144" s="6" t="s">
         <v>61</v>
       </c>
       <c r="E144" s="6" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="F144" s="6" t="s">
         <v>56</v>
       </c>
       <c r="G144" s="16" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="145" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B145" s="15" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="145" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B145" s="19" t="s">
+        <v>151</v>
+      </c>
+      <c r="C145" s="17" t="s">
         <v>152</v>
       </c>
-      <c r="C145" s="6" t="s">
-        <v>153</v>
-      </c>
-      <c r="D145" s="6" t="s">
+      <c r="D145" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="E145" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="F145" s="6" t="s">
+      <c r="E145" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="F145" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="G145" s="16" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="146" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B146" s="19" t="s">
-        <v>154</v>
-      </c>
-      <c r="C146" s="17" t="s">
-        <v>155</v>
-      </c>
-      <c r="D146" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="E146" s="17" t="s">
-        <v>62</v>
-      </c>
-      <c r="F146" s="17" t="s">
-        <v>56</v>
-      </c>
-      <c r="G146" s="18" t="s">
+      <c r="G145" s="18" t="s">
         <v>20</v>
       </c>
     </row>
@@ -3597,38 +3582,43 @@
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <conditionalFormatting sqref="B11:G16 B84:G87 B109:G112">
-    <cfRule type="expression" dxfId="6" priority="10">
+    <cfRule type="expression" dxfId="7" priority="11">
       <formula>$D11="Hecho"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B24:G28">
-    <cfRule type="expression" dxfId="5" priority="9">
+    <cfRule type="expression" dxfId="6" priority="10">
       <formula>$D24="Hecho"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B36:G40">
-    <cfRule type="expression" dxfId="4" priority="8">
+    <cfRule type="expression" dxfId="5" priority="9">
       <formula>$D36="Hecho"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B48:G52">
-    <cfRule type="expression" dxfId="3" priority="7">
+    <cfRule type="expression" dxfId="4" priority="8">
       <formula>$D48="Hecho"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B60:G63">
-    <cfRule type="expression" dxfId="2" priority="6">
+    <cfRule type="expression" dxfId="3" priority="7">
       <formula>$D60="Hecho"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B73:G76">
-    <cfRule type="expression" dxfId="1" priority="5">
+    <cfRule type="expression" dxfId="2" priority="6">
       <formula>$D73="Hecho"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B96:G99">
-    <cfRule type="expression" dxfId="0" priority="3">
+    <cfRule type="expression" dxfId="1" priority="4">
       <formula>$D96="Hecho"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D120:D123">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>$D120="Hecho"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
